--- a/excel/initial_working.xlsx
+++ b/excel/initial_working.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="626">
   <si>
     <t>firstname</t>
   </si>
@@ -1105,9 +1105,6 @@
     <t>Hydraulics 3</t>
   </si>
   <si>
-    <t>hydraulics 4</t>
-  </si>
-  <si>
     <t>Geotech 2</t>
   </si>
   <si>
@@ -1270,9 +1267,6 @@
     <t>Microwave Communications</t>
   </si>
   <si>
-    <t>analog Modulation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Digital Communications </t>
   </si>
   <si>
@@ -1625,6 +1619,294 @@
   </si>
   <si>
     <t>student_num</t>
+  </si>
+  <si>
+    <t>topic_description</t>
+  </si>
+  <si>
+    <t>This is Algebra</t>
+  </si>
+  <si>
+    <t>This is Plane and Spherical Geometry</t>
+  </si>
+  <si>
+    <t>This is Plane and Spherical Trigo</t>
+  </si>
+  <si>
+    <t>This is Analytic Geometry</t>
+  </si>
+  <si>
+    <t>This is Differential Calculus</t>
+  </si>
+  <si>
+    <t>This is Integral Calculus</t>
+  </si>
+  <si>
+    <t>This is Differential Equation</t>
+  </si>
+  <si>
+    <t>This is Probability</t>
+  </si>
+  <si>
+    <t>This is Economy</t>
+  </si>
+  <si>
+    <t>This is Survey 1</t>
+  </si>
+  <si>
+    <t>This is Survey 2</t>
+  </si>
+  <si>
+    <t>This is Survey 3</t>
+  </si>
+  <si>
+    <t>This is Hydraulics 1</t>
+  </si>
+  <si>
+    <t>This is Hydraulics 2</t>
+  </si>
+  <si>
+    <t>This is Hydraulics 3</t>
+  </si>
+  <si>
+    <t>Hydraulics 4</t>
+  </si>
+  <si>
+    <t>This is Hydraulics 4</t>
+  </si>
+  <si>
+    <t>This is Geotech 2</t>
+  </si>
+  <si>
+    <t>This is Geotech 3</t>
+  </si>
+  <si>
+    <t>This is Geotech 4</t>
+  </si>
+  <si>
+    <t>This is Mechanics 1</t>
+  </si>
+  <si>
+    <t>This is Mechanics 2</t>
+  </si>
+  <si>
+    <t>This is Mechanics 3</t>
+  </si>
+  <si>
+    <t>This is Strength 1</t>
+  </si>
+  <si>
+    <t>This is Strength 2</t>
+  </si>
+  <si>
+    <t>This is Theory 1</t>
+  </si>
+  <si>
+    <t>This is Theory 2</t>
+  </si>
+  <si>
+    <t>This is Theory 3</t>
+  </si>
+  <si>
+    <t>This is Steel 1</t>
+  </si>
+  <si>
+    <t>This is Steel 2</t>
+  </si>
+  <si>
+    <t>This is Steel 3</t>
+  </si>
+  <si>
+    <t>This is RCD 1</t>
+  </si>
+  <si>
+    <t>This is RCD 2</t>
+  </si>
+  <si>
+    <t>This is RCD 3</t>
+  </si>
+  <si>
+    <t>This is Advance Math</t>
+  </si>
+  <si>
+    <t>This is Probability and Statistics</t>
+  </si>
+  <si>
+    <t>This is Chemistry</t>
+  </si>
+  <si>
+    <t>This is Physics</t>
+  </si>
+  <si>
+    <t>This is Mechanics</t>
+  </si>
+  <si>
+    <t>This is Strength of Materials</t>
+  </si>
+  <si>
+    <t>This is Thermodynamics</t>
+  </si>
+  <si>
+    <t>This is Hydraulics</t>
+  </si>
+  <si>
+    <t>This is Fluid Mechanics</t>
+  </si>
+  <si>
+    <t>This is Engineering Econmy</t>
+  </si>
+  <si>
+    <t>This is Philippine Electrical Code</t>
+  </si>
+  <si>
+    <t>This is Laws and Ethics</t>
+  </si>
+  <si>
+    <t>This is Computer Fundamentals</t>
+  </si>
+  <si>
+    <t>This is Circuits 1</t>
+  </si>
+  <si>
+    <t>This is Circuits 2</t>
+  </si>
+  <si>
+    <t>This is Circuits 3</t>
+  </si>
+  <si>
+    <t>This is DC Machine</t>
+  </si>
+  <si>
+    <t>This is AC Machinces</t>
+  </si>
+  <si>
+    <t>This is Aparatus and Equipment</t>
+  </si>
+  <si>
+    <t>This is Power Systems</t>
+  </si>
+  <si>
+    <t>This is Illumination</t>
+  </si>
+  <si>
+    <t>This is Transient</t>
+  </si>
+  <si>
+    <t>This is Power Plant</t>
+  </si>
+  <si>
+    <t>This is Electronics</t>
+  </si>
+  <si>
+    <t>This is Vector Analysis and Electromagnets</t>
+  </si>
+  <si>
+    <t>This is Engineering Economy</t>
+  </si>
+  <si>
+    <t>This is Electrical Elements</t>
+  </si>
+  <si>
+    <t>This is DC and AC circuits</t>
+  </si>
+  <si>
+    <t>This is Electricity and Magnetism</t>
+  </si>
+  <si>
+    <t>This is Microelectronics</t>
+  </si>
+  <si>
+    <t>This is Semiconductor Devices</t>
+  </si>
+  <si>
+    <t>This is Logic Circuits</t>
+  </si>
+  <si>
+    <t>This is Industrial Electronics and Power Supply</t>
+  </si>
+  <si>
+    <t>This is Radiowave Communications</t>
+  </si>
+  <si>
+    <t>This is Transmission Lines and Waveguides</t>
+  </si>
+  <si>
+    <t>This is Antenna</t>
+  </si>
+  <si>
+    <t>This is Microwave Communications</t>
+  </si>
+  <si>
+    <t>Analog Modulation</t>
+  </si>
+  <si>
+    <t>This is Analog Modulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Digital Communications </t>
+  </si>
+  <si>
+    <t>This is Fiber Oprics</t>
+  </si>
+  <si>
+    <t>This is Trigonometry</t>
+  </si>
+  <si>
+    <t>This is Solid Mensuration</t>
+  </si>
+  <si>
+    <t>This is Statics and Dynamics</t>
+  </si>
+  <si>
+    <t>This is Heat Transfer</t>
+  </si>
+  <si>
+    <t>This is Combustion Engineering</t>
+  </si>
+  <si>
+    <t>This is Machine Elements</t>
+  </si>
+  <si>
+    <t>This is Machine Shop Theory</t>
+  </si>
+  <si>
+    <t>This is Material Science Engineering</t>
+  </si>
+  <si>
+    <t>This is Fluid Machinery</t>
+  </si>
+  <si>
+    <t>This is Combustion Engine</t>
+  </si>
+  <si>
+    <t>This is Refrigeration, Heating, Ventilation and Airconditioning</t>
+  </si>
+  <si>
+    <t>This is Industrial Process</t>
+  </si>
+  <si>
+    <t>This is Safety Engineering and Intrumentation</t>
+  </si>
+  <si>
+    <t>This is Industrial Plant Engineering</t>
+  </si>
+  <si>
+    <t>This is Power Plant Engineering</t>
+  </si>
+  <si>
+    <t>This is Vibration Engineering</t>
+  </si>
+  <si>
+    <t>This subject area is exclusive for CE department</t>
+  </si>
+  <si>
+    <t>This subject area is exclusive for EE department</t>
+  </si>
+  <si>
+    <t>This subject area is exclusive for ECE department</t>
+  </si>
+  <si>
+    <t>This subject area is exclusive for ME department</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2315,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3185,7 +3467,7 @@
         <v>169</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
@@ -3214,7 +3496,7 @@
         <v>173</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I41" t="s">
         <v>15</v>
@@ -3243,7 +3525,7 @@
         <v>177</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I42" t="s">
         <v>15</v>
@@ -3272,7 +3554,7 @@
         <v>180</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
@@ -3301,7 +3583,7 @@
         <v>184</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I44" t="s">
         <v>15</v>
@@ -3330,7 +3612,7 @@
         <v>188</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I45" t="s">
         <v>15</v>
@@ -3359,7 +3641,7 @@
         <v>192</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I46" t="s">
         <v>15</v>
@@ -3388,7 +3670,7 @@
         <v>196</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I47" t="s">
         <v>15</v>
@@ -3417,7 +3699,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I48" t="s">
         <v>15</v>
@@ -3446,7 +3728,7 @@
         <v>204</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I49" t="s">
         <v>15</v>
@@ -3475,7 +3757,7 @@
         <v>208</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I50" t="s">
         <v>15</v>
@@ -3504,7 +3786,7 @@
         <v>212</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I51" t="s">
         <v>15</v>
@@ -3533,7 +3815,7 @@
         <v>215</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I52" t="s">
         <v>15</v>
@@ -3562,7 +3844,7 @@
         <v>219</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I53" t="s">
         <v>15</v>
@@ -3591,7 +3873,7 @@
         <v>223</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I54" t="s">
         <v>15</v>
@@ -3620,7 +3902,7 @@
         <v>226</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
@@ -3649,7 +3931,7 @@
         <v>229</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -3678,7 +3960,7 @@
         <v>233</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
@@ -3707,7 +3989,7 @@
         <v>237</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I58" t="s">
         <v>15</v>
@@ -4320,10 +4602,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4331,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4339,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +4633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -4365,16 +4647,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1" t="s">
         <v>526</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>527</v>
-      </c>
-      <c r="C1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4382,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4464,10 +4746,10 @@
         <v>320</v>
       </c>
       <c r="G2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -4499,10 +4781,10 @@
         <v>324</v>
       </c>
       <c r="G3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -4528,16 +4810,16 @@
         <v>327</v>
       </c>
       <c r="E4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>328</v>
       </c>
       <c r="G4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -4569,10 +4851,10 @@
         <v>332</v>
       </c>
       <c r="G5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -4610,7 +4892,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4634,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4645,22 +4927,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" t="s">
         <v>455</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4677,22 +4959,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F3" t="s">
-        <v>478</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4709,28 +4991,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>460</v>
-      </c>
-      <c r="C4" t="s">
-        <v>456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>457</v>
-      </c>
-      <c r="E4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F4" t="s">
-        <v>479</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>462</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -4741,22 +5023,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D5" t="s">
-        <v>457</v>
-      </c>
-      <c r="E5" t="s">
-        <v>480</v>
-      </c>
-      <c r="F5" t="s">
-        <v>480</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4847,15 +5129,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>340</v>
       </c>
@@ -4865,8 +5152,11 @@
       <c r="C1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4876,8 +5166,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4887,8 +5180,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4898,8 +5194,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4909,8 +5208,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4920,8 +5222,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4931,8 +5236,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4942,8 +5250,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4953,8 +5264,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4964,8 +5278,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4975,8 +5292,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4986,8 +5306,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4997,8 +5320,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5008,8 +5334,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5019,8 +5348,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5030,819 +5362,1044 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>358</v>
+        <v>546</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>413</v>
+        <v>602</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C90">
         <v>1</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -5854,30 +6411,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="56.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" t="s">
         <v>432</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>434</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="E1" t="s">
-        <v>436</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>333</v>
@@ -5888,13 +6446,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>622</v>
       </c>
       <c r="F2" s="9">
         <v>2</v>
@@ -5905,13 +6466,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>622</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
@@ -5922,13 +6486,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>622</v>
       </c>
       <c r="F4" s="6">
         <v>5</v>
@@ -5939,16 +6506,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5956,16 +6526,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>622</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5973,16 +6546,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>622</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5990,13 +6566,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>623</v>
       </c>
       <c r="F8" s="9">
         <v>2</v>
@@ -6007,13 +6586,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>623</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
@@ -6024,13 +6606,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>623</v>
       </c>
       <c r="F10" s="6">
         <v>5</v>
@@ -6041,16 +6626,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6058,16 +6646,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>623</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6075,16 +6666,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>623</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6092,13 +6686,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>624</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -6109,13 +6706,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>624</v>
       </c>
       <c r="F15" s="6">
         <v>3</v>
@@ -6126,13 +6726,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>624</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
@@ -6143,16 +6746,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6160,16 +6766,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>624</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6177,16 +6786,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6194,16 +6806,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>624</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6211,16 +6826,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>624</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6228,13 +6846,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="F22" s="9">
         <v>2</v>
@@ -6245,13 +6866,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="F23" s="6">
         <v>3</v>
@@ -6262,13 +6886,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="F24" s="6">
         <v>5</v>
@@ -6279,16 +6906,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>438</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6296,16 +6926,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6313,16 +6946,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -6342,7 +6978,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B1" t="s">
         <v>340</v>
@@ -8416,10 +9052,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -8431,19 +9067,19 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8454,19 +9090,19 @@
         <v>201011111</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" t="s">
         <v>487</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="F2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -8486,19 +9122,19 @@
         <v>201022222</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="F3" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="G3" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="F3" t="s">
-        <v>494</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -8518,19 +9154,19 @@
         <v>201033333</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" t="s">
         <v>497</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="G4" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="F4" t="s">
-        <v>499</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -8550,19 +9186,19 @@
         <v>201044444</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="F5" t="s">
         <v>502</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="G5" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="F5" t="s">
-        <v>504</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -8582,19 +9218,19 @@
         <v>201055555</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="G6" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -8614,19 +9250,19 @@
         <v>201066666</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="G7" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -8646,19 +9282,19 @@
         <v>201077777</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="G8" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -8678,19 +9314,19 @@
         <v>201088888</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="G9" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -8734,10 +9370,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8745,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8753,7 +9389,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8761,7 +9397,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -8769,7 +9405,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/excel/initial_working.xlsx
+++ b/excel/initial_working.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="student_list" sheetId="1" r:id="rId1"/>
@@ -4633,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6411,7 +6411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
